--- a/output1.xlsx
+++ b/output1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,15 +531,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">meet the needs of one or more identifiable target markets;
-</t>
+          <t>Good product governance should result in products that:</t>
         </is>
       </c>
     </row>
@@ -564,13 +559,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">are sold to clients in the target markets by appropriate distribution channels; and
-</t>
+          <t>meet the needs of one or more identifiable target markets;</t>
         </is>
       </c>
     </row>
@@ -595,13 +589,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">deliver appropriate client outcomes.
-</t>
+          <t>are sold to clients in the target markets by appropriate distribution channels; and</t>
         </is>
       </c>
     </row>
@@ -611,7 +604,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PROD 1.1.4</t>
+          <t>PROD 1.1.3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -621,13 +614,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2Unless the contrary intention appears, a reference to Gibraltar-based firm in PROD has the same meaning as in the Gibraltar Order.</t>
+          <t>deliver appropriate client outcomes.</t>
         </is>
       </c>
     </row>
@@ -637,21 +634,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PROD 1.2.1</t>
+          <t>PROD 1.1.4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>2Unless the contrary intention appears, a reference to Gibraltar-based firm in PROD has the same meaning as in the Gibraltar Order.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PROD 1.2.1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>1
 PROD 2
@@ -659,36 +682,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PROD 1.3.1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>03/01/2018</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>a MiFID investment firm;</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
@@ -708,16 +701,12 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-a CRD credit institution; 
-</t>
+          <t>1
+PROD 3
+ applies to</t>
         </is>
       </c>
     </row>
@@ -742,12 +731,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>a MiFID optional exemption firm; and</t>
+          <t>a MiFID investment firm;</t>
         </is>
       </c>
     </row>
@@ -772,15 +761,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-branches of third country investment firms;
-with respect to:
-</t>
+          <t>a CRD credit institution;</t>
         </is>
       </c>
     </row>
@@ -805,13 +791,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">manufacturing financial instruments and structured deposits; and
-</t>
+          <t>a MiFID optional exemption firm; and</t>
         </is>
       </c>
     </row>
@@ -836,12 +821,13 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">(6) </t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>distributing financial instruments, structured deposits and investment services.</t>
+          <t>branches of third country investment firms;
+with respect to:</t>
         </is>
       </c>
     </row>
@@ -851,7 +837,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROD 1.3.-1A</t>
+          <t>PROD 1.3.1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -861,13 +847,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>(5)</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5A TP firm and a Gibraltar-based firm must also comply with the provisions in PROD 1.3 and PROD 3 in relation to a pathway investment, with respect to activities carried on from an establishment maintained by it, or its appointed representative, in the United Kingdom.</t>
+          <t>manufacturing financial instruments and structured deposits; and</t>
         </is>
       </c>
     </row>
@@ -877,7 +867,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROD 1.3.2</t>
+          <t>PROD 1.3.1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -887,17 +877,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>31/07/2023</t>
+          <t>03/01/2018</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Subject to (2) other firms which manufacture or distribute financial instruments or structured deposits should take account of PROD 3 as if it were guidance on the Principles and other relevant rules and as if “should” appeared in PROD 3 rules instead of “must”.6</t>
+          <t>distributing financial instruments, structured deposits and investment services.</t>
         </is>
       </c>
     </row>
@@ -907,7 +897,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROD 1.3.2</t>
+          <t>PROD 1.3.1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -917,17 +907,13 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>31/07/2023</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Paragraph (1) does not apply to a firm to the extent that it is required to comply with Principle 12 (Consumer Duty) and PRIN 2A in relation to a product.6</t>
+          <t>[Note: articles 1(3), 1(4), 16(3), 24(2) and 41(2) of MiFID]</t>
         </is>
       </c>
     </row>
@@ -937,7 +923,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PROD 1.3.3</t>
+          <t>PROD 1.3.-1A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -947,14 +933,13 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PROD 3.3.1R
- does not apply to eligible counterparty business.</t>
+          <t>5A TP firm and a Gibraltar-based firm must also comply with the provisions in PROD 1.3 and PROD 3 in relation to a pathway investment, with respect to activities carried on from an establishment maintained by it, or its appointed representative, in the United Kingdom.</t>
         </is>
       </c>
     </row>
@@ -964,7 +949,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PROD 1.3.3</t>
+          <t>PROD 1.3.2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -974,13 +959,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>31/07/2023</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Note: article 30(1) of MiFID]</t>
+          <t>Subject to (2) other firms which manufacture or distribute financial instruments or structured deposits should take account of PROD 3 as if it were guidance on the Principles and other relevant rules and as if “should” appeared in PROD 3 rules instead of “must”.6</t>
         </is>
       </c>
     </row>
@@ -990,7 +979,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PROD 1.3.4</t>
+          <t>PROD 1.3.2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1000,14 +989,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>31/07/2023</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>PROD 3
- applies to a firm with respect to activities carried on from an establishment maintained by it, or its appointed representative, in the United Kingdom.</t>
+          <t>Paragraph (1) does not apply to a firm to the extent that it is required to comply with Principle 12 (Consumer Duty) and PRIN 2A in relation to a product.6</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1009,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PROD 1.3.5</t>
+          <t>PROD 1.3.3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1030,14 +1022,11 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>PROD 3 also applies to a firm with respect to activities from an establishment overseas with a client in the United Kingdom.</t>
+          <t>PROD 3.3.1R
+ does not apply to eligible counterparty business.</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1036,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PROD 1.3.5</t>
+          <t>PROD 1.3.3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1060,14 +1049,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>But PROD 3 does not apply to those activities if the office from which the activity is carried on were a separate person and the activity:</t>
+          <t>[Note: article 30(1) of MiFID]</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1062,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PROD 1.3.5</t>
+          <t>PROD 1.3.4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1090,14 +1075,11 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(a) </t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>would fall within the overseas persons exclusions in article 72 of the Regulated Activities Order; or</t>
+          <t>PROD 3
+ applies to a firm with respect to activities carried on from an establishment maintained by it, or its appointed representative, in the United Kingdom.</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1104,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>would not be regarded as being carried on in the United Kingdom.</t>
+          <t>PROD 3 also applies to a firm with respect to activities from an establishment overseas with a client in the United Kingdom.</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1119,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PROD 1.3.6</t>
+          <t>PROD 1.3.5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1147,13 +1129,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[deleted]2</t>
+          <t>But PROD 3 does not apply to those activities if the office from which the activity is carried on were a separate person and the activity:</t>
         </is>
       </c>
     </row>
@@ -1163,23 +1149,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PROD 1.3.7</t>
+          <t>PROD 1.3.5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>(a)</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[deleted]2</t>
+          <t>would fall within the overseas persons exclusions in article 72 of the Regulated Activities Order; or</t>
         </is>
       </c>
     </row>
@@ -1189,23 +1179,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PROD 1.3.8</t>
+          <t>PROD 1.3.5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>(b)</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[deleted]2</t>
+          <t>would not be regarded as being carried on in the United Kingdom.</t>
         </is>
       </c>
     </row>
@@ -1215,12 +1209,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PROD 1.3.9</t>
+          <t>PROD 1.3.6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1241,7 +1235,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PROD 1.3.10</t>
+          <t>PROD 1.3.7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1267,7 +1261,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PROD 1.3.11</t>
+          <t>PROD 1.3.8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1283,8 +1277,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PERG 13
- contains general guidance on the persons and businesses to which the UK provisions which implemented MiFID apply2.</t>
+          <t>[deleted]2</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1287,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PROD 1.3.12</t>
+          <t>PROD 1.3.9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1320,7 +1313,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PROD 1.3.13</t>
+          <t>PROD 1.3.10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1346,7 +1339,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PROD 1.3.14</t>
+          <t>PROD 1.3.11</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1362,7 +1355,8 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[deleted]2</t>
+          <t>PERG 13
+ contains general guidance on the persons and businesses to which the UK provisions which implemented MiFID apply2.</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1366,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PROD 1.3.15</t>
+          <t>PROD 1.3.12</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1382,13 +1376,13 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>A firm to which PROD 3 applies need not apply the guidance in RPPD for matters covered by PROD if the firm has complied with PROD 3.</t>
+          <t>[deleted]2</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1392,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PROD 1.3.16</t>
+          <t>PROD 1.3.13</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1408,14 +1402,13 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3
-4A firm that is within the scope of PROD 3 (Product governance: MiFID) when it manufactures pathway investments other than in connection with its operating of a retail client’s personal pension scheme or stakeholder pension scheme, is also subject to PROD 6 (Product governance: additional provisions for pathway investments) as guidance with respect to that manufacturing activity (see PROD 1.6.1R(3)).</t>
+          <t>[deleted]2</t>
         </is>
       </c>
     </row>
@@ -1425,27 +1418,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROD 1.4.1</t>
+          <t>PROD 1.3.14</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">an insurance intermediary; and </t>
+          <t>[deleted]2</t>
         </is>
       </c>
     </row>
@@ -1455,27 +1444,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PROD 1.4.1</t>
+          <t>PROD 1.3.15</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>an insurer,</t>
+          <t>A firm to which PROD 3 applies need not apply the guidance in RPPD for matters covered by PROD if the firm has complied with PROD 3.</t>
         </is>
       </c>
     </row>
@@ -1485,27 +1470,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PROD 1.4.-1A</t>
+          <t>PROD 1.3.16</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>PROD 1.4 and PROD 4.5 (Additional expectations for manufacturers and distributors in relation to value measures data);8</t>
+          <t>3
+4A firm that is within the scope of PROD 3 (Product governance: MiFID) when it manufactures pathway investments other than in connection with its operating of a retail client’s personal pension scheme or stakeholder pension scheme, is also subject to PROD 6 (Product governance: additional provisions for pathway investments) as guidance with respect to that manufacturing activity (see PROD 1.6.1R(3)).</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1497,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROD 1.4.-1A</t>
+          <t>PROD 1.4.1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1528,14 +1510,12 @@
           <t>01/10/2021</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>7PROD 1.4 and PROD 4 in relation to a pathway investment;8</t>
+          <t>1
+PROD 4
+ applies to:</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1525,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROD 1.4.-1A</t>
+          <t>PROD 1.4.1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1560,12 +1540,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>PROD 1.4, PROD 4 and (where applicable) PROD TP 1 in relation to non-investment insurance products (including legacy non-investment insurance products) that are, or will be, marketed or distributed, or there are policies under the product that remain in force, in the United Kingdom.8</t>
+          <t>an insurance intermediary; and</t>
         </is>
       </c>
     </row>
@@ -1575,21 +1555,309 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>PROD 1.4.1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>an insurer,</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PROD 1.4.1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>with respect to:</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PROD 1.4.1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>manufacturing insurance products; 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>PROD 1.4.1</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>(3A)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>product governance and distribution arrangements for legacy non-investment insurance products (see PROD 4.6); and8</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PROD 1.4.1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>(4)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>distributing insurance products.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>PROD 1.4.1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[Note: articles 1(2) and 25 of the IDD]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>PROD 1.4.-1A</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6A TP  firm and a Gibraltar-based firm8 must also comply with the provisions in:</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PROD 1.4.-1A</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>PROD 1.4 and PROD 4.5 (Additional expectations for manufacturers and distributors in relation to value measures data);8</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PROD 1.4.-1A</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7PROD 1.4 and PROD 4 in relation to a pathway investment;8</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PROD 1.4.-1A</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>PROD 1.4, PROD 4 and (where applicable) PROD TP 1 in relation to non-investment insurance products (including legacy non-investment insurance products) that are, or will be, marketed or distributed, or there are policies under the product that remain in force, in the United Kingdom.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>PROD 1.4.1A</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
         <is>
           <t>5
 PROD 4.5
@@ -1597,318 +1865,29 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>PROD 1.4.2</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>01/10/2018</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1In PROD an insurance product may be read as being a reference to the product for distribution to customers generally and is not intended to refer to each individual contract of insurance being sold or underwritten (unless the context indicates otherwise).</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>PROD 1.4.3</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>01/10/2021</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>a contract of large risks, or</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>PROD 1.4.3</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>01/10/2021</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>a reinsurance contract.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>PROD 1.4.3A</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>01/02/2021</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3
-4A firm that is within the scope of PROD 4 (Product governance: IDD) when manufactures pathway investments other than in connection with its operating of a retail client’s personal pension scheme or stakeholder pension scheme, is also subject to PROD 6 (Product governance: additional provisions for pathway investments) as guidance with respect to that manufacturing activity (see PROD 1.6.1R(2)).</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>PROD 1.4.3B</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>01/02/2021</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">manufactures or distributes pathway investments in connection with its operating of a retail client’s personal pension scheme or stakeholder pension scheme; and
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>PROD 1.4.3B</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>01/02/2021</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">is not otherwise within the scope of the rules or onshored regulations7 in PROD in relation to that manufacturing or distribution activity, then PROD 4, PROD 1.4.4UK and PROD 1.4.10G, apply7 with respect to that manufacturing or distribution activity.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>PROD 1.4.3C</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>01/02/2021</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">manufactures or distributes pathway investments in connection with its operating of a retail client’s personal pension scheme or stakeholder pension scheme; and
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>PROD 1.4.3C</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>01/02/2021</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">before the entry into force of PROD 1.4.3BR, was not subject to the rules or onshored regulations  in PROD.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>PROD 1.4.4</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2For the purposes of [PROD 4.2.1R, PROD 4.2.2R, PROD 4.2.29R, PROD 4.2.34R, PROD 4.3.1R and PROD 4.3.2R], insurance intermediaries shall be considered manufacturers where an overall analysis of their activity shows that they have a decision-making role in designing and developing an insurance product for the market.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>PROD 1.4.4</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>3(2)	A decision-making role shall be assumed, in particular, where insurance intermediaries autonomously determine the essential features and main elements of an insurance product, including its coverage, price, costs, risk, target market and compensation and guarantee rights, which are not substantially modified by the insurance undertaking providing coverage for the insurance product.</t>
-        </is>
-      </c>
-    </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PROD 1.4.4</t>
+          <t>PROD 1.4.2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3(3)	Personalisation of and adaptation of existing insurance products in the context of insurance distribution activities for individual customers, as well as the design of tailor-made contracts at the request of a single customer, shall not be considered manufacturing.</t>
+          <t>1In PROD an insurance product may be read as being a reference to the product for distribution to customers generally and is not intended to refer to each individual contract of insurance being sold or underwritten (unless the context indicates otherwise).</t>
         </is>
       </c>
     </row>
@@ -1918,23 +1897,25 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PROD 1.4.4</t>
+          <t>PROD 1.4.3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[Note: article 3 of the IDD POG Regulation]</t>
+          <t>1
+PROD 4
+ does not apply in relation to an insurance product that is:8</t>
         </is>
       </c>
     </row>
@@ -1944,12 +1925,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PROD 1.4.5</t>
+          <t>PROD 1.4.3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1957,10 +1938,14 @@
           <t>01/10/2021</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1The effect of PROD 1.4.4UK2  and PROD 1.4.6R is that an insurance intermediary needs to consider if it is manufacturing an insurance product or if it would be a manufacturer for a legacy non-investment insurance product for PROD 4.6,8 and, if so, should comply with PROD 4.2 (Manufacture of insurance products).</t>
+          <t>a contract of large risks, or</t>
         </is>
       </c>
     </row>
@@ -1970,12 +1955,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PROD 1.4.5A</t>
+          <t>PROD 1.4.3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1985,12 +1970,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>8PROD 4.2 applies to firms that manufacture insurance products. The terms ‘firm’ and ‘manufacturer’ are used in that section interchangeably to refer to such persons.</t>
+          <t>a reinsurance contract.</t>
         </is>
       </c>
     </row>
@@ -2000,12 +1985,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROD 1.4.5A</t>
+          <t>PROD 1.4.3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2013,14 +1998,10 @@
           <t>01/10/2021</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>The Glossary term ‘manufacture’ includes ‘designing, developing, creating and/or underwriting’ which cover activities prior to the insurance product being approved for marketing and distribution, and on a continuing basis after such approval.</t>
+          <t>[Note: article 25(4) of the IDD]</t>
         </is>
       </c>
     </row>
@@ -2030,27 +2011,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROD 1.4.6</t>
+          <t>PROD 1.4.3A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1Subject to (2) and PROD 1.4.3R, provisions in this section and in PROD 4 marked “UK”2 apply to firms :8</t>
+          <t>3
+4A firm that is within the scope of PROD 4 (Product governance: IDD) when manufactures pathway investments other than in connection with its operating of a retail client’s personal pension scheme or stakeholder pension scheme, is also subject to PROD 6 (Product governance: additional provisions for pathway investments) as guidance with respect to that manufacturing activity (see PROD 1.6.1R(2)).</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2038,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROD 1.4.6</t>
+          <t>PROD 1.4.3B</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2070,17 +2048,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(a) </t>
-        </is>
-      </c>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>manufacturing or distributing insurance products, but to whom the IDD POG Regulation does not apply;8</t>
+          <t>3
+4Where a firm:</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2065,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PROD 1.4.6</t>
+          <t>PROD 1.4.3B</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2100,17 +2075,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>in relation to product governance and distribution arrangements for legacy non-investment insurance products,8</t>
+          <t>manufactures or distributes pathway investments in connection with its operating of a retail client’s personal pension scheme or stakeholder pension scheme; and</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2095,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PROD 1.4.6</t>
+          <t>PROD 1.4.3B</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2130,17 +2105,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>(a) manufacturing or distributing insurance products, but to whom the IDD POG Regulation does not apply;8(b) in relation to product governance and distribution arrangements for legacy non-investment insurance products,8</t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>as if they were rules.</t>
+          <t>is not otherwise within the scope of the rules or onshored regulations7 in PROD in relation to that manufacturing or distribution activity, then PROD 4, PROD 1.4.4UK and PROD 1.4.10G, apply7 with respect to that manufacturing or distribution activity.</t>
         </is>
       </c>
     </row>
@@ -2150,27 +2125,24 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PROD 1.4.6</t>
+          <t>PROD 1.4.3C</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>For the purposes of (1), a word or phrase used in the IDD POG Regulation and referred to in column (A) has the meaning indicated in Column (B) of the table below:</t>
+          <t>3
+4The effect of PROD 1.4.3BR is to apply PROD 4 to any firm, such as a SIPP operator, which:</t>
         </is>
       </c>
     </row>
@@ -2180,12 +2152,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PROD 1.4.6A</t>
+          <t>PROD 1.4.3C</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2195,13 +2167,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve">comply with provisions marked "UK"7 in PROD 1.4 and PROD 4 as if they were rules; and
-</t>
+          <t>manufactures or distributes pathway investments in connection with its operating of a retail client’s personal pension scheme or stakeholder pension scheme; and</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2182,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PROD 1.4.6A</t>
+          <t>PROD 1.4.3C</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2226,13 +2197,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">read terms or phrases found in PROD 1.4 or PROD 4 as follows: 
-</t>
+          <t>before the entry into force of PROD 1.4.3BR, was not subject to the rules or onshored regulations  in PROD.</t>
         </is>
       </c>
     </row>
@@ -2242,27 +2212,23 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PROD 1.4.6A</t>
+          <t>PROD 1.4.4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(a) </t>
-        </is>
-      </c>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>terms referred to in column (1) of the table below have the meaning indicated in the same row of column (2) of the table;</t>
+          <t>2For the purposes of [PROD 4.2.1R, PROD 4.2.2R, PROD 4.2.29R, PROD 4.2.34R, PROD 4.3.1R and PROD 4.3.2R], insurance intermediaries shall be considered manufacturers where an overall analysis of their activity shows that they have a decision-making role in designing and developing an insurance product for the market.</t>
         </is>
       </c>
     </row>
@@ -2272,29 +2238,23 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PROD 1.4.6A</t>
+          <t>PROD 1.4.4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(b) </t>
-        </is>
-      </c>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve">  
-terms relating to insurance or insurance products have the meaning of the corresponding term relevant in the context of pathway investments; and
-</t>
+          <t>3(2)	A decision-making role shall be assumed, in particular, where insurance intermediaries autonomously determine the essential features and main elements of an insurance product, including its coverage, price, costs, risk, target market and compensation and guarantee rights, which are not substantially modified by the insurance undertaking providing coverage for the insurance product.</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2264,23 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PROD 1.4.6A</t>
+          <t>PROD 1.4.4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>01/02/2021</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(c) </t>
-        </is>
-      </c>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve">terms or phrases which are only relevant to firms manufacturing or distributing insurance products may be disregarded.  
-</t>
+          <t>3(3)	Personalisation of and adaptation of existing insurance products in the context of insurance distribution activities for individual customers, as well as the design of tailor-made contracts at the request of a single customer, shall not be considered manufacturing.</t>
         </is>
       </c>
     </row>
@@ -2335,27 +2290,23 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PROD 1.4.7</t>
+          <t>PROD 1.4.4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>(for all insurance products and pathway investments) in the United Kingdom; and8</t>
+          <t>[Note: article 3 of the IDD POG Regulation]</t>
         </is>
       </c>
     </row>
@@ -2365,12 +2316,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PROD 1.4.7</t>
+          <t>PROD 1.4.5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2378,14 +2329,10 @@
           <t>01/10/2021</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>(in addition, for non-investment insurance products) overseas, in relation to an insurance product that is, or will be, marketed or distributed, or there are policies under the product that remain in force, in the United Kingdom8.</t>
+          <t>1The effect of PROD 1.4.4UK2  and PROD 1.4.6R is that an insurance intermediary needs to consider if it is manufacturing an insurance product or if it would be a manufacturer for a legacy non-investment insurance product for PROD 4.6,8 and, if so, should comply with PROD 4.2 (Manufacture of insurance products).</t>
         </is>
       </c>
     </row>
@@ -2395,23 +2342,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PROD 1.4.8</t>
+          <t>PROD 1.4.5A</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[deleted]2</t>
+          <t>8PROD 4.2 applies to firms that manufacture insurance products. The terms ‘firm’ and ‘manufacturer’ are used in that section interchangeably to refer to such persons.</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2372,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PROD 1.4.9</t>
+          <t>PROD 1.4.5A</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2431,13 +2382,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[deleted]2</t>
+          <t>The Glossary term ‘manufacture’ includes ‘designing, developing, creating and/or underwriting’ which cover activities prior to the insurance product being approved for marketing and distribution, and on a continuing basis after such approval.</t>
         </is>
       </c>
     </row>
@@ -2447,23 +2402,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PROD 1.4.10</t>
+          <t>PROD 1.4.6</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1A firm to which PROD 4 applies need not apply the guidance in RPPD for matters covered by PROD if the firm has complied with PROD 4 (see also PROD 4.4.2G). PROD 4.4 includes guidance based on the RPPD which firms subject to PROD 4 should apply.</t>
+          <t>1Subject to (2) and PROD 1.4.3R, provisions in this section and in PROD 4 marked “UK”2 apply to firms :8</t>
         </is>
       </c>
     </row>
@@ -2473,7 +2432,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PROD 1.4.11</t>
+          <t>PROD 1.4.6</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2483,17 +2442,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>The changes made to PROD 4.2 and PROD 4.3 in Annex E of the Non-Investment Insurance: Product Governance, Premium Finance, General Insurance Auto-renewal and Home and Motor Insurance Pricing Instrument 2021 do not apply, unless otherwise specified in (2).</t>
+          <t>manufacturing or distributing insurance products, but to whom the IDD POG Regulation does not apply;8</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2462,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PROD 1.4.11</t>
+          <t>PROD 1.4.6</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2513,17 +2472,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve">The following rules and guidance in Annex E of the Non-Investment Insurance: Product Governance, Premium Finance, General Insurance Auto-renewal and Home and Motor Insurance Pricing Instrument 2021 continue to apply: </t>
+          <t>in relation to product governance and distribution arrangements for legacy non-investment insurance products,8</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2492,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PROD 1.4.11</t>
+          <t>PROD 1.4.6</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2543,17 +2502,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(a) manufacturing or distributing insurance products, but to whom the IDD POG Regulation does not apply;8(b) in relation to product governance and distribution arrangements for legacy non-investment insurance products,8</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>PROD 4.2.1AG;</t>
+          <t>as if they were rules.</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2522,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PROD 1.4.11</t>
+          <t>PROD 1.4.6</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2573,17 +2532,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>PROD 4.2.21AG;</t>
+          <t>For the purposes of (1), a word or phrase used in the IDD POG Regulation and referred to in column (A) has the meaning indicated in Column (B) of the table below:</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2552,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PROD 1.4.11</t>
+          <t>PROD 1.4.6</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2603,17 +2562,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">(c) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>PROD 4.2.34AG; and</t>
+          <t>In this sourcebook, where a reproduced provision of an article of the IDD POG Regulation refers to another part of the IDD POG Regulation, that other provision must also be read with reference to the table in (2).</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2582,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PROD 1.4.11</t>
+          <t>PROD 1.4.6</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2633,17 +2592,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">(d) </t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>PROD 4.2.36BR.</t>
+          <t>In relation to a legacy non-investment insurance product, the reproduced provisions of an article of the IDD POG Regulation must be read to be consistent with the application of product governance and distribution requirements in PROD 4.2 and PROD 4.3 to a legacy non-investment insurance product.8</t>
         </is>
       </c>
     </row>
@@ -2653,27 +2612,24 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PROD 1.4.12</t>
+          <t>PROD 1.4.6A</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve">10The effect of PROD 1.4.11R is that, for an overseas non-investment insurance product, including where this is a legacy non-investment insurance product subject to PROD 4.6, a firm’s product approval process (and arrangements for ongoing monitoring) need only comply with:  </t>
+          <t>3
+4A firm to which PROD 1.4.3BR applies must</t>
         </is>
       </c>
     </row>
@@ -2683,27 +2639,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROD 1.4.12</t>
+          <t>PROD 1.4.6A</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve">the requirements in PROD 4.2 or PROD 4.3 as they stood on 30 September 2021, except for those provisions in PROD 1.4.11R(2); and </t>
+          <t>comply with provisions marked "UK"7 in PROD 1.4 and PROD 4 as if they were rules; and</t>
         </is>
       </c>
     </row>
@@ -2713,27 +2669,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PROD 1.4.12</t>
+          <t>PROD 1.4.6A</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>any subsequent changes made by an instrument other than the Non-Investment Insurance: Product Governance, Premium Finance, General Insurance Auto-renewal and Home and Motor Insurance Pricing Instrument 2021.</t>
+          <t>read terms or phrases found in PROD 1.4 or PROD 4 as follows:</t>
         </is>
       </c>
     </row>
@@ -2743,27 +2699,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PROD 1.4.12</t>
+          <t>PROD 1.4.6A</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>(a) the requirements in PROD 4.2 or PROD 4.3 as they stood on 30 September 2021, except for those provisions in PROD 1.4.11R(2); and (b) any subsequent changes made by an instrument other than the Non-Investment Insurance: Product Governance, Premium Finance, General Insurance Auto-renewal and Home and Motor Insurance Pricing Instrument 2021.</t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>PROD 1.4 and PROD 4 as it stood on 30 September 2021 can be accessed by using the timeline on the FCA Handbook website. Firms will need to consider any further changes to PROD after this date to consider if they apply in relation to overseas non-investment insurance products.</t>
+          <t>terms referred to in column (1) of the table below have the meaning indicated in the same row of column (2) of the table;</t>
         </is>
       </c>
     </row>
@@ -2773,27 +2729,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PROD 1.4.12</t>
+          <t>PROD 1.4.6A</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>A non-investment insurance product:</t>
+          <t>terms relating to insurance or insurance products have the meaning of the corresponding term relevant in the context of pathway investments; and</t>
         </is>
       </c>
     </row>
@@ -2803,27 +2759,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROD 1.4.12</t>
+          <t>PROD 1.4.6A</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(c)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>that will be or is available for distribution or marketing to customers who are habitually resident or, if applicable, where the state of the risk is, in the United Kingdom; or</t>
+          <t>terms or phrases which are only relevant to firms manufacturing or distributing insurance products may be disregarded.</t>
         </is>
       </c>
     </row>
@@ -2833,27 +2789,23 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PROD 1.4.12</t>
+          <t>PROD 1.4.6A</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(b) </t>
-        </is>
-      </c>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve">where, for any policy issued under the product, the policyholder is habitually resident in or, if applicable, the state of the risk is in, the United Kingdom, </t>
+          <t>This table belongs to PROD 1.4.6AR(2)(a).</t>
         </is>
       </c>
     </row>
@@ -2863,27 +2815,23 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PROD 1.4.12</t>
+          <t>PROD 1.4.6A</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(a) that will be or is available for distribution or marketing to customers who are habitually resident or, if applicable, where the state of the risk is, in the United Kingdom; or(b) where, for any policy issued under the product, the policyholder is habitually resident in or, if applicable, the state of the risk is in, the United Kingdom, </t>
-        </is>
-      </c>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>will not be an overseas non-investment insurance product and the firm will need to meet all applicable requirements in PROD 4 including PROD 4.2.14AR in relation to providing fair value.</t>
+          <t>(1)</t>
         </is>
       </c>
     </row>
@@ -2893,27 +2841,23 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PROD 1.4.12</t>
+          <t>PROD 1.4.6A</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>31/03/2023</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>A firm should also consider in relation to any overseas non-investment insurance product what is required to meet obligations under other rules in the FCA Handbook including, for example, the Principles and SYSC.</t>
+          <t>(2)</t>
         </is>
       </c>
     </row>
@@ -2923,7 +2867,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PROD 1.5.1</t>
+          <t>PROD 1.4.6A</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2933,17 +2877,13 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>22/02/2019</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>offers to sell an extended warranty to a customer; or</t>
+          <t>7“ICOBS 2.5-1R and COBS 2.1.1R”</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2893,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PROD 1.5.1</t>
+          <t>PROD 1.4.6A</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2963,17 +2903,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>22/02/2019</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>refers, invites or induces a customer to obtain an extended warranty from a person connected to the firm;</t>
+          <t>7
+COBS 2.1.1R</t>
         </is>
       </c>
     </row>
@@ -2983,23 +2920,23 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PROD 1.5.2</t>
+          <t>PROD 1.4.6A</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>22/02/2019</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1A person connected to the firm includes someone who has a relevant business relationship with the firm.</t>
+          <t>“ICOBS”</t>
         </is>
       </c>
     </row>
@@ -3009,7 +2946,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PROD 1.5.3</t>
+          <t>PROD 1.4.6A</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3019,11 +2956,1393 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>22/02/2019</t>
+          <t>01/02/2021</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
+        <is>
+          <t>relevant conduct of business obligations</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>"PROD 4.2 requirements of the IDD POG Regulation)”7</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>PROD 4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>“insurance-based investment products”</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>pathway investment</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>“insurance distributor”</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>“insurance distribution activities”</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>distribution activities</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>“insurance intermediary and an insurance undertaking”</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>firms</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>“insurance product”</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>pathway investment</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>“‘manufacturer’ and ‘manufacturers’ within the meaning of Article 2 of this Delegated Regulation”</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>“manufacturing”</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>manufacturing</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>“premiums”</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>costs and charges</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>“shall”</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>PROD 1.4.6A</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>PROD 1.4.7</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1
+PROD 4
+ applies to a firm with respect to activities carried on from an establishment maintained by it, or its appointed representative:8</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>PROD 1.4.7</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>(for all insurance products and pathway investments) in the United Kingdom; and8</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>PROD 1.4.7</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>(in addition, for non-investment insurance products) overseas, in relation to an insurance product that is, or will be, marketed or distributed, or there are policies under the product that remain in force, in the United Kingdom8.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>PROD 1.4.7</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>[Note: in respect of (1),8 article 7(2) of the IDD]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>PROD 1.4.8</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>[deleted]2</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>PROD 1.4.9</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>[deleted]2</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>PROD 1.4.10</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1A firm to which PROD 4 applies need not apply the guidance in RPPD for matters covered by PROD if the firm has complied with PROD 4 (see also PROD 4.4.2G). PROD 4.4 includes guidance based on the RPPD which firms subject to PROD 4 should apply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>PROD 1.4.11</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>10
+PROD 4
+ applies in relation to an overseas non-investment insurance product with the following modifications:</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>PROD 1.4.11</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>The changes made to PROD 4.2 and PROD 4.3 in Annex E of the Non-Investment Insurance: Product Governance, Premium Finance, General Insurance Auto-renewal and Home and Motor Insurance Pricing Instrument 2021 do not apply, unless otherwise specified in (2).</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>PROD 1.4.11</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>The following rules and guidance in Annex E of the Non-Investment Insurance: Product Governance, Premium Finance, General Insurance Auto-renewal and Home and Motor Insurance Pricing Instrument 2021 continue to apply:</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>PROD 1.4.11</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>(a)</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>PROD 4.2.1AG;</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>PROD 1.4.11</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>(b)</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>PROD 4.2.21AG;</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>PROD 1.4.11</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>(c)</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>PROD 4.2.34AG; and</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>PROD 1.4.11</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>(d)</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>PROD 4.2.36BR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>PROD 1.4.11</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>[Note: the Non-Investment Insurance: Product Governance, Premium Finance, General Insurance Auto-renewal and Home and Motor Insurance Pricing Instrument 2021 can be found at [https://www.handbook.fca.org.uk/instrument/2021/FCA_2021_19.pdf]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>PROD 1.4.12</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>10The effect of PROD 1.4.11R is that, for an overseas non-investment insurance product, including where this is a legacy non-investment insurance product subject to PROD 4.6, a firm’s product approval process (and arrangements for ongoing monitoring) need only comply with:</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>PROD 1.4.12</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>(a)</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>the requirements in PROD 4.2 or PROD 4.3 as they stood on 30 September 2021, except for those provisions in PROD 1.4.11R(2); and</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>PROD 1.4.12</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>(b)</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>any subsequent changes made by an instrument other than the Non-Investment Insurance: Product Governance, Premium Finance, General Insurance Auto-renewal and Home and Motor Insurance Pricing Instrument 2021.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>PROD 1.4.12</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>(a) the requirements in PROD 4.2 or PROD 4.3 as they stood on 30 September 2021, except for those provisions in PROD 1.4.11R(2); and (b) any subsequent changes made by an instrument other than the Non-Investment Insurance: Product Governance, Premium Finance, General Insurance Auto-renewal and Home and Motor Insurance Pricing Instrument 2021.</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>PROD 1.4 and PROD 4 as it stood on 30 September 2021 can be accessed by using the timeline on the FCA Handbook website. Firms will need to consider any further changes to PROD after this date to consider if they apply in relation to overseas non-investment insurance products.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>PROD 1.4.12</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>A non-investment insurance product:</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>PROD 1.4.12</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>(a)</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>that will be or is available for distribution or marketing to customers who are habitually resident or, if applicable, where the state of the risk is, in the United Kingdom; or</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>PROD 1.4.12</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>(b)</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>where, for any policy issued under the product, the policyholder is habitually resident in or, if applicable, the state of the risk is in, the United Kingdom,</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>PROD 1.4.12</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>(a) that will be or is available for distribution or marketing to customers who are habitually resident or, if applicable, where the state of the risk is, in the United Kingdom; or(b) where, for any policy issued under the product, the policyholder is habitually resident in or, if applicable, the state of the risk is in, the United Kingdom,</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>will not be an overseas non-investment insurance product and the firm will need to meet all applicable requirements in PROD 4 including PROD 4.2.14AR in relation to providing fair value.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>PROD 1.4.12</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>31/03/2023</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>A firm should also consider in relation to any overseas non-investment insurance product what is required to meet obligations under other rules in the FCA Handbook including, for example, the Principles and SYSC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>PROD 1.5.1</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>22/02/2019</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1
+PROD 5
+ applies to a firm which:</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>PROD 1.5.1</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>22/02/2019</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>offers to sell an extended warranty to a customer; or</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>PROD 1.5.1</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>22/02/2019</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>refers, invites or induces a customer to obtain an extended warranty from a person connected to the firm;</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>PROD 1.5.1</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>22/02/2019</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>in connection with the entering into of a rent-to-own agreement with the firm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>PROD 1.5.2</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>22/02/2019</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1A person connected to the firm includes someone who has a relevant business relationship with the firm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>PROD 1.5.3</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>22/02/2019</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
         <is>
           <t>1
 PROD 5
@@ -3031,606 +4350,660 @@
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>PROD 1.5.4</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
         <is>
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
         <is>
           <t>[deleted]2</t>
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>PROD 1.5.5</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
         <is>
           <t>[deleted]2</t>
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t>PROD 1.5.6</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
         <is>
           <t>[deleted]2</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
         <is>
           <t>PROD 1.5.7</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
         <is>
           <t>[deleted]2</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
         <is>
           <t>PROD 1.6.1</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
         <is>
           <t>01/02/2021</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">that manufactures or distributes pathway investments in connection with its operating of a retail client’s personal pension scheme or stakeholder pension scheme;
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1
+2
+PROD 6
+ applies to a firm:</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
         <is>
           <t>PROD 1.6.1</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
         <is>
           <t>01/02/2021</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">within the scope of PROD 4 when manufacturing pathway investments, other than in connection with its operating of a retail client’s personal pension scheme or stakeholder pension scheme, as guidance with respect to that manufacturing activity;
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>that manufactures or distributes pathway investments in connection with its operating of a retail client’s personal pension scheme or stakeholder pension scheme;</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
         <is>
           <t>PROD 1.6.1</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
         <is>
           <t>01/02/2021</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">within the scope of PROD 3 when manufacturing pathway investments, other than in connection with its operating of a retail client’s personal pension scheme or stakeholder pension scheme, as guidance with respect to that manufacturing activity. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>within the scope of PROD 4 when manufacturing pathway investments, other than in connection with its operating of a retail client’s personal pension scheme or stakeholder pension scheme, as guidance with respect to that manufacturing activity;</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>PROD 1.6.1</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>01/02/2021</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>within the scope of PROD 3 when manufacturing pathway investments, other than in connection with its operating of a retail client’s personal pension scheme or stakeholder pension scheme, as guidance with respect to that manufacturing activity.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
         <is>
           <t>ROD 1.7.1</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
         <is>
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
         <is>
           <t>1PROD 7 applies to:</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
         <is>
           <t>ROD 1.7.1</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
         <is>
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(a) </t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>(a)</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
         <is>
           <t>a funeral plan provider; and</t>
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
         <is>
           <t>ROD 1.7.1</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
         <is>
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(b) </t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>(b)</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
         <is>
           <t>a funeral plan intermediary,</t>
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
         <is>
           <t>ROD 1.7.1</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
         <is>
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>(a) a funeral plan provider; and(b) a funeral plan intermediary,</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>with respect to:</t>
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
         <is>
           <t>ROD 1.7.1</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
         <is>
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(c) </t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>(c)</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
         <is>
           <t>manufacturing funeral plan products; and</t>
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
         <is>
           <t>ROD 1.7.1</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
         <is>
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(d) </t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>(d)</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
         <is>
           <t>distributing  funeral plan products.</t>
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
         <is>
           <t xml:space="preserve">PROD 1.7.2 </t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
         <is>
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr">
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
         <is>
           <t>1A Gibraltar-based firm must also comply with the provisions in PROD 7 (Product governance: funeral plans).</t>
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
         <is>
           <t>PROD 1.7.3</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
         <is>
           <t>1The Glossary term ‘manufacture’ includes ‘designing, developing, creating and/or entering into or carrying out a funeral plan contract as provider’ which cover activities prior to the funeral plan product being approved for marketing and distribution, and on a continuing basis after such approval.</t>
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
         <is>
           <t>PROD 1.7.4</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
         <is>
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
         <is>
           <t>1For the purposes of PROD 7, a funeral plan intermediary is a manufacturer of a funeral plan product where an overall analysis of their activity shows that they have a decision-making role in designing and developing a funeral plan contract for the market.</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
         <is>
           <t>PROD 1.7.4</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
         <is>
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
         <is>
           <t>A decision-making role will be assumed, in particular, where a funeral plan intermediary autonomously determines the essential features and main elements of a funeral plan contract, including any of its price, costs, target market or guarantee rights, which are not substantially modified by the funeral plan provider.</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
         <is>
           <t>PROD 1.7.4</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
         <is>
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Personalisation of and adaptation of existing funeral plan products in the context of funeral plan distributions for individual customers, as well as the design of tailor-made contracts at the request of a single customer, are not manufacturing. </t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Personalisation of and adaptation of existing funeral plan products in the context of funeral plan distributions for individual customers, as well as the design of tailor-made contracts at the request of a single customer, are not manufacturing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
         <is>
           <t>PROD 1.7.5</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
         <is>
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1
+PROD 7
+ applies to a firm with respect to activities carried on by it, or its appointed representative, in relation to:</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>PROD 1.7.5</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>29/07/2022</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
         <is>
           <t>a funeral plan product; and</t>
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
         <is>
           <t>PROD 1.7.5</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
         <is>
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
         <is>
           <t>a subsisting funeral plan.</t>
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
         <is>
           <t>PROD 1.7.6</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D163" t="inlineStr">
         <is>
           <t>29/07/2022</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr">
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
         <is>
           <t>1The RPPD Guide does not apply to a firm to which PROD 7 applies for matters covered by, and where the firm has complied with, PROD 7.</t>
         </is>
